--- a/Templates/AddressDetails.xlsx
+++ b/Templates/AddressDetails.xlsx
@@ -20,42 +20,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t xml:space="preserve">Org Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Display Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PAN No</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TIN No</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAN No</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Business Id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MotilalOswalPvtLtd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Motilal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AAAPG5520J</t>
-  </si>
-  <si>
-    <t xml:space="preserve">84-5524128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASDD55874A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Private limited</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+  <si>
+    <t xml:space="preserve">Street Address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Landmark</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Country</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pincode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Area</t>
+  </si>
+  <si>
+    <t xml:space="preserve">City</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10, Marathon Empire State Building</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marathan Empire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">India</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maharashtra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Currey Road</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mumbai</t>
   </si>
 </sst>
 </file>
@@ -65,7 +68,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -85,6 +88,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -134,8 +143,8 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -155,10 +164,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:F2"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -185,25 +194,31 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="1" t="s">
         <v>9</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>400011</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>11</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Templates/AddressDetails.xlsx
+++ b/Templates/AddressDetails.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t xml:space="preserve">Street Address</t>
   </si>
@@ -50,6 +50,9 @@
   </si>
   <si>
     <t xml:space="preserve">India</t>
+  </si>
+  <si>
+    <t xml:space="preserve">400011</t>
   </si>
   <si>
     <t xml:space="preserve">Maharashtra</t>
@@ -68,32 +71,27 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -143,7 +141,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -167,7 +165,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:G2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -208,17 +206,17 @@
       <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="1" t="n">
-        <v>400011</v>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
